--- a/laravel/项目表ver4.17.xlsx
+++ b/laravel/项目表ver4.17.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="190">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,12 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传文件的时间</t>
-  </si>
-  <si>
-    <t>上传时间</t>
-  </si>
-  <si>
     <t>varchar</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t>添加日期</t>
   </si>
   <si>
-    <t>点击量</t>
-  </si>
-  <si>
     <t>人气</t>
   </si>
   <si>
@@ -623,18 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uploaded_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fileurl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,6 +699,26 @@
   </si>
   <si>
     <t>updated_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击量，默认值:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topimgurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgurl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1922,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1942,46 +1941,46 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1989,19 +1988,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,283 +2008,320 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>152</v>
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
+      <c r="A10" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>183</v>
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>153</v>
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>149</v>
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -2293,293 +2329,302 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>7</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>159</v>
+      <c r="A31" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>162</v>
+        <v>87</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>89</v>
+      <c r="E42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2590,48 +2635,51 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>168</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2639,19 +2687,19 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2659,19 +2707,19 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,19 +2727,19 @@
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>89</v>
+        <v>176</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2699,19 +2747,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2719,19 +2767,205 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/laravel/项目表ver4.17.xlsx
+++ b/laravel/项目表ver4.17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="120" windowWidth="12456" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="120" windowWidth="12456" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="架构表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resources/views/inc/…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resources/views/inc/searchbar.blade.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,6 +715,42 @@
   </si>
   <si>
     <t>imgurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/view/inc/header.blade.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横幅展示图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/view/inc/banner.blade.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专题聚焦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/view/inc/focusnav.blade.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/views/inc/comlink.blade.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/views/inc/footer.blade.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>58</v>
@@ -1251,499 +1283,485 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="H6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="str">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="str">
         <f>F5</f>
         <v>导航</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="str">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="str">
         <f>H5</f>
         <v>resources/views/inc/nav.blade.php</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="str">
-        <f>F6</f>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="str">
+        <f>F8</f>
         <v>登录</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="str">
-        <f>F10</f>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="str">
+        <f>F13</f>
         <v>通用链接</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="str">
-        <f>H10</f>
-        <v>resources/views/inc/…</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="str">
+        <f>H13</f>
+        <v>resources/views/inc/comlink.blade.php</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="str">
-        <f>F11</f>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="str">
+        <f>F15</f>
         <v>搜索</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="str">
-        <f>H11</f>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="str">
+        <f>H15</f>
         <v>resources/views/inc/searchbar.blade.php</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>11</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="str">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="str">
         <f>F5</f>
         <v>导航</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="str">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="str">
         <f>H5</f>
         <v>resources/views/inc/nav.blade.php</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="str">
-        <f>F6</f>
-        <v>登录</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="str">
-        <f>F10</f>
-        <v>通用链接</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="str">
-        <f>H10</f>
-        <v>resources/views/inc/…</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="str">
-        <f>F11</f>
-        <v>搜索</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="str">
-        <f>H11</f>
-        <v>resources/views/inc/searchbar.blade.php</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="6" t="str">
+        <f>F8</f>
+        <v>登录</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="str">
+        <f>F13</f>
+        <v>通用链接</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="str">
+        <f>H13</f>
+        <v>resources/views/inc/comlink.blade.php</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="str">
+        <f>F15</f>
+        <v>搜索</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="str">
+        <f>H15</f>
+        <v>resources/views/inc/searchbar.blade.php</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>17</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>19</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>20</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>21</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
+        <v>18</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
+        <v>19</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1752,165 +1770,243 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>24</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>25</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>26</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>27</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>28</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>29</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>30</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6" t="s">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>31</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6" t="s">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>32</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6" t="s">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>33</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="5" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J42" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B42">
       <formula1>"---,进行中,完成,暂停,终止"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E42">
       <formula1>"---,娄枫,严杰"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1923,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -1941,46 +2037,46 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1988,19 +2084,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2008,19 +2104,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2028,19 +2124,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2048,28 +2144,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2077,19 +2173,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2097,19 +2193,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2117,19 +2213,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2137,19 +2233,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2157,19 +2253,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,28 +2273,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2206,19 +2302,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,19 +2322,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2246,22 +2342,22 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2269,19 +2365,19 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,28 +2385,28 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -2332,16 +2428,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2349,19 +2445,19 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2369,28 +2465,28 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2398,19 +2494,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2418,19 +2514,19 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2438,22 +2534,22 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2461,16 +2557,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -2481,19 +2577,19 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2501,19 +2597,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2521,16 +2617,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2538,19 +2634,19 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2558,19 +2654,19 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2578,13 +2674,13 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2592,22 +2688,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,22 +2711,22 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2638,19 +2734,19 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2658,28 +2754,28 @@
         <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2687,19 +2783,19 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2707,19 +2803,19 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2727,16 +2823,16 @@
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2747,19 +2843,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,16 +2863,16 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2784,19 +2880,19 @@
         <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2804,28 +2900,28 @@
         <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2833,19 +2929,19 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2853,19 +2949,19 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2873,22 +2969,22 @@
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2896,16 +2992,16 @@
         <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2913,19 +3009,19 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2933,19 +3029,19 @@
         <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2953,19 +3049,19 @@
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
